--- a/data/income_statement/2digits/size/13_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/13_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>13-Manufacture of textiles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>13-Manufacture of textiles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,896 +841,1011 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>11948013.6253</v>
+        <v>12672319.74032</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>13238373.51625</v>
+        <v>13857384.03503</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>16257567.02175</v>
+        <v>16990110.83697</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>16493029.05182</v>
+        <v>17350601.8293</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>20563773.91256</v>
+        <v>21850717.03543</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>23613302.62526</v>
+        <v>25405257.29822</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>23672720.20639</v>
+        <v>25797402.27052</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>24632625.82953</v>
+        <v>26805064.86968</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>27950147.81287</v>
+        <v>30107007.34097</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>49874526.18590999</v>
+        <v>51000633.92103</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>60001631.06505001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>61133382.1648</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>66254587.666</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>9783121.608479999</v>
+        <v>10399961.39464</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>11146277.08098</v>
+        <v>11655893.74585</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>13456472.75622</v>
+        <v>14045721.03937</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>13964317.86448</v>
+        <v>14681090.74771</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>17131980.63694</v>
+        <v>18275065.79902</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>19623801.09969</v>
+        <v>21284478.02473</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>19850709.53817</v>
+        <v>21582560.83148</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>20446838.68594</v>
+        <v>22351751.98771</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>23509389.63015</v>
+        <v>25242335.89345</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>40898371.67182</v>
+        <v>41987709.53109001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>49617303.88637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>50504364.91011</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>53627445.783</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2010669.16789</v>
+        <v>2109377.86945</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1948544.01471</v>
+        <v>2047046.9411</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2628586.523109999</v>
+        <v>2761230.02701</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2373815.30732</v>
+        <v>2501448.72577</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3213862.49671</v>
+        <v>3356732.8308</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3764976.78073</v>
+        <v>3890975.42151</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3558649.7655</v>
+        <v>3936737.68526</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3855111.16514</v>
+        <v>4110910.54537</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>4103392.40815</v>
+        <v>4481531.118319999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>8252238.876019999</v>
+        <v>8263574.342219999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>9611651.80871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>9859482.028849998</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>11662950.681</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>154222.84893</v>
+        <v>162980.47623</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>143552.42056</v>
+        <v>154443.34808</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>172507.74242</v>
+        <v>183159.77059</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>154895.88002</v>
+        <v>168062.35582</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>217930.77891</v>
+        <v>218918.40561</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>224524.74484</v>
+        <v>229803.85198</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>263360.90272</v>
+        <v>278103.75378</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>330675.9784500001</v>
+        <v>342402.3366</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>337365.77457</v>
+        <v>383140.3292</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>723915.6380700001</v>
+        <v>749350.04772</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>772675.36997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>769535.2258400001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>964191.202</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>267540.16246</v>
+        <v>283681.26322</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>283084.97752</v>
+        <v>290011.19027</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>319282.44948</v>
+        <v>331675.61056</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>292998.76783</v>
+        <v>312230.4150399999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>334309.1015700001</v>
+        <v>348613.78025</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>485770.51335</v>
+        <v>520821.6296</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>492149.72953</v>
+        <v>515390.88332</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>571887.53608</v>
+        <v>632084.90873</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>623793.19606</v>
+        <v>682728.06655</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1146081.27279</v>
+        <v>1183706.05033</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1275496.14689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1301918.33544</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1486379.438</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>174129.25763</v>
+        <v>184243.38267</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>184448.37867</v>
+        <v>187984.79378</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>227050.51627</v>
+        <v>233869.46373</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>231610.71007</v>
+        <v>244617.81071</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>262924.74238</v>
+        <v>272778.58481</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>331662.01663</v>
+        <v>355344.85312</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>319782.02383</v>
+        <v>346353.86806</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>402620.48967</v>
+        <v>450103.54826</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>434775.47522</v>
+        <v>479589.47564</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>824168.25842</v>
+        <v>848072.49205</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>947111.21404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>963620.88725</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1115497.338</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>55392.14433</v>
+        <v>57300.556</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>67088.18497</v>
+        <v>67304.81749</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>63231.5486</v>
+        <v>66663.47654</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>28279.68869</v>
+        <v>32078.67381</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>28608.16742</v>
+        <v>31025.37558</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>99093.37837999999</v>
+        <v>103100.74078</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>110127.58248</v>
+        <v>97736.39691000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>99303.98806</v>
+        <v>102254.26191</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>104060.09287</v>
+        <v>109802.33104</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>103242.03587</v>
+        <v>106032.9895</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>133175.83546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>137877.95883</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>150698.618</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>38018.7605</v>
+        <v>42137.32455</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>31548.41388</v>
+        <v>34721.579</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>29000.38461</v>
+        <v>31142.67029</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>33108.36907</v>
+        <v>35533.93052</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>42776.19177</v>
+        <v>44809.81986</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>55015.11834</v>
+        <v>62376.03569999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>62240.12322</v>
+        <v>71300.61835</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>69963.05834999999</v>
+        <v>79727.09856</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>84957.62797</v>
+        <v>93336.25987000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>218670.9785</v>
+        <v>229600.56878</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>195209.09739</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>200419.48936</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>220183.482</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>11680473.46284</v>
+        <v>12388638.4771</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>12955288.53873</v>
+        <v>13567372.84476</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>15938284.57227</v>
+        <v>16658435.22641</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>16200030.28399</v>
+        <v>17038371.41426</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>20229464.81099</v>
+        <v>21502103.25518</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>23127532.11191</v>
+        <v>24884435.66862</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>23180570.47686</v>
+        <v>25282011.3872</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>24060738.29345</v>
+        <v>26172979.96095</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>27326354.61681</v>
+        <v>29424279.27442</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>48728444.91311999</v>
+        <v>49816927.87069999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>58726134.91816001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>59831463.82936</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>64768208.228</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>10305538.84431</v>
+        <v>10934708.34353</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>11557976.71563</v>
+        <v>12092800.45621</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>14213990.25762</v>
+        <v>14785770.38591</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>14538994.14134</v>
+        <v>15267674.74243</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>17870573.45386</v>
+        <v>18918027.23712</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>20467383.01395</v>
+        <v>21984345.55631</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>20253449.64115</v>
+        <v>22028833.57556</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>20983647.12705</v>
+        <v>22824420.48133</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>23924727.73975</v>
+        <v>25636987.15014</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>41822275.56397</v>
+        <v>42655682.87083</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>51396080.5032</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>52289505.73900999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>55468919.699</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>7890971.37614</v>
+        <v>8462384.1581</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>8868188.130640002</v>
+        <v>9230134.99199</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>11019939.75572</v>
+        <v>11438827.62547</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>11167239.11055</v>
+        <v>11748350.15464</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>13783757.45404</v>
+        <v>14651837.71001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>15648210.28243</v>
+        <v>16940700.36497</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>15195363.82592</v>
+        <v>16617390.1601</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>15755100.68476</v>
+        <v>17330002.70689</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>18023292.57563</v>
+        <v>19511507.79387</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>33497886.8598</v>
+        <v>34227444.88842</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>40224364.97752</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>41052824.00527</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>42467672.242</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1431281.91275</v>
+        <v>1454376.47947</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1681381.72162</v>
+        <v>1748389.38925</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2055282.14655</v>
+        <v>2077608.38048</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2119915.35596</v>
+        <v>2202205.85636</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2496846.65181</v>
+        <v>2581029.51131</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2971192.29941</v>
+        <v>3108140.71019</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3259828.25296</v>
+        <v>3437854.5414</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3321038.16595</v>
+        <v>3418951.14307</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3563837.35326</v>
+        <v>3638555.47396</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>5032372.06499</v>
+        <v>5074191.97497</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>6979354.10183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>6975760.214860001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>8507979.604</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>882042.37499</v>
+        <v>910943.53851</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>940824.4845400001</v>
+        <v>1042379.69601</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1050097.6895</v>
+        <v>1169578.43032</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1172214.21882</v>
+        <v>1234451.65707</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1504163.86859</v>
+        <v>1601354.88127</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1741283.02116</v>
+        <v>1834062.96249</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1683837.01356</v>
+        <v>1849525.68872</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1784123.36952</v>
+        <v>1943301.05614</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2223019.78924</v>
+        <v>2375104.46343</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3050038.71342</v>
+        <v>3108437.891979999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3890361.94383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3969645.59434</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4158475.402</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>101243.18043</v>
+        <v>107004.16745</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>67582.37883</v>
+        <v>71896.37895999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>88670.66584999999</v>
+        <v>99755.94964000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>79625.45600999999</v>
+        <v>82667.07436</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>85805.47942</v>
+        <v>83805.13453</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>106697.41095</v>
+        <v>101441.51866</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>114420.54871</v>
+        <v>124063.18534</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>123384.90682</v>
+        <v>132165.57523</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>114578.02162</v>
+        <v>111819.41888</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>241977.92576</v>
+        <v>245608.11546</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>301999.48002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>291275.92454</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>334792.451</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1374934.61853</v>
+        <v>1453930.13357</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1397311.8231</v>
+        <v>1474572.38855</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1724294.31465</v>
+        <v>1872664.8405</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1661036.14265</v>
+        <v>1770696.67183</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2358891.35713</v>
+        <v>2584076.018060001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2660149.09796</v>
+        <v>2900090.11231</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2927120.83571</v>
+        <v>3253177.81164</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3077091.1664</v>
+        <v>3348559.47962</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3401626.87706</v>
+        <v>3787292.12428</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6906169.349149999</v>
+        <v>7161244.99987</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7330054.414959999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7541958.09035</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9299288.528999999</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>786380.34546</v>
+        <v>847735.1559199999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>814819.65253</v>
+        <v>847342.73365</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>917325.8489300001</v>
+        <v>959685.46037</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>995110.7214500001</v>
+        <v>1051035.12067</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1230309.44538</v>
+        <v>1284736.30768</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1418989.95878</v>
+        <v>1480046.62824</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1478414.0356</v>
+        <v>1561634.42038</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1641575.90412</v>
+        <v>1732183.59573</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1767264.75905</v>
+        <v>1869645.09017</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2692949.92316</v>
+        <v>2723318.42562</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3346785.1086</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3408392.03212</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3563176.696</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3297.0264</v>
+        <v>4869.85754</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2535.78408</v>
+        <v>3740.78966</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>5847.02211</v>
+        <v>6277.44258</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>5047.22343</v>
+        <v>5402.32409</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>4896.952490000001</v>
+        <v>6429.154420000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>6057.63823</v>
+        <v>5779.74552</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>6231.75851</v>
+        <v>9330.24965</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>3927.04736</v>
+        <v>4680.24346</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>5813.89597</v>
+        <v>4721.265469999999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>9059.972230000001</v>
+        <v>11305.76926</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>15003.49441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>17046.74454</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>16312.524</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>283886.8425800001</v>
+        <v>314369.51549</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>284315.56887</v>
+        <v>299616.88599</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>319437.78941</v>
+        <v>341554.07688</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>332401.37934</v>
+        <v>365405.81509</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>435760.84884</v>
+        <v>463509.84701</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>506131.57307</v>
+        <v>535976.3608800001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>515788.73348</v>
+        <v>557712.46077</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>559430.4389</v>
+        <v>612239.24049</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>612355.73627</v>
+        <v>676235.96213</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1085883.18005</v>
+        <v>1119576.56868</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1336400.64576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1380409.98702</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1389810.632</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>499196.47648</v>
+        <v>528495.78289</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>527968.29958</v>
+        <v>543985.058</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>592041.03741</v>
+        <v>611853.9409100001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>657662.1186800001</v>
+        <v>680226.98149</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>789651.64405</v>
+        <v>814797.30625</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>906800.74748</v>
+        <v>938290.5218399999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>956393.5436100001</v>
+        <v>994591.70996</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1078218.41786</v>
+        <v>1115264.11178</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1149095.12681</v>
+        <v>1188687.86257</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1598006.77088</v>
+        <v>1592436.08768</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1995380.96843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2010935.30056</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2157053.54</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>588554.2730699999</v>
+        <v>606194.97765</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>582492.17057</v>
+        <v>627229.6549000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>806968.46572</v>
+        <v>912979.3801300001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>665925.4212000001</v>
+        <v>719661.5511599999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1128581.91175</v>
+        <v>1299339.71038</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1241159.13918</v>
+        <v>1420043.48407</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1448706.80011</v>
+        <v>1691543.39126</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1435515.26228</v>
+        <v>1616375.88389</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1634362.11801</v>
+        <v>1917647.03411</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4213219.425989999</v>
+        <v>4437926.57425</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3983269.30636</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4133566.058230001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>5736111.833</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>435194.69624</v>
+        <v>511273.50508</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>348922.17376</v>
+        <v>458323.2566</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>449808.63696</v>
+        <v>483482.8136000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>342001.55068</v>
+        <v>368596.65074</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>606227.66531</v>
+        <v>689478.6165499999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>658868.41756</v>
+        <v>694069.3370899999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1018741.13762</v>
+        <v>1338606.306</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>831819.18626</v>
+        <v>1041308.58618</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>867220.6941400002</v>
+        <v>1001252.2914</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>5009744.73808</v>
+        <v>5328016.8441</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2577289.71792</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2714273.09673</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4429343.765</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2941.624440000001</v>
+        <v>2865.96237</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2715.95323</v>
+        <v>2817.996479999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1814.7311</v>
+        <v>2489.81093</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2646.7758</v>
+        <v>3003.29614</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>6746.80806</v>
+        <v>6760.738629999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1822.04631</v>
+        <v>10178.47518</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>5706.7678</v>
+        <v>24212.90887</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>7284.73208</v>
+        <v>10127.14953</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>5174.27825</v>
+        <v>5507.36892</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>41809.54858</v>
+        <v>21660.02767</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>26610.56742</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>80976.65193000001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>32072.325</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1985.12184</v>
+        <v>1152.42809</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>1810.50769</v>
+        <v>1116.8661</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>829.6551499999999</v>
+        <v>1591.952</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>39.3282</v>
+        <v>49.4298</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>332.77499</v>
+        <v>20419.87993</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>637.36325</v>
+        <v>4443.95887</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>800.8676300000001</v>
+        <v>3763.04915</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>671.7283</v>
+        <v>14473.7212</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>1134.55729</v>
@@ -1840,245 +1856,280 @@
       <c r="M27" s="48" t="n">
         <v>6461.198869999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>23309.768</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>29374.64061</v>
+        <v>36693.98095</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>26499.98881</v>
+        <v>30995.7083</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>30595.89944</v>
+        <v>34823.70241000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>29814.03117</v>
+        <v>32973.38701</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>32518.92502</v>
+        <v>39052.13198</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>37803.91422</v>
+        <v>42349.78164</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>51857.77512999999</v>
+        <v>52612.90959</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>44291.31266</v>
+        <v>46285.16101</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>59777.59609000001</v>
+        <v>55203.4121</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>109084.54037</v>
+        <v>116362.90097</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>139974.13632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>148149.8208</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>146904.647</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2157.78998</v>
+        <v>1965.55638</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1680.96849</v>
+        <v>2216.76699</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1385.40916</v>
+        <v>2193.13098</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>864.6393999999999</v>
+        <v>831.6528699999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>425.3267</v>
+        <v>562.31178</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1370.00035</v>
+        <v>1160.27721</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1084.72034</v>
+        <v>1085.5948</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1864.20179</v>
+        <v>1862.63133</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2903.47992</v>
+        <v>2797.53099</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>30359.8591</v>
+        <v>30328.31212</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>7038.39174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7038.391739999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>22903.169</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>6532.34006</v>
+        <v>21301.23641</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>6813.08202</v>
+        <v>8175.781459999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>10378.14544</v>
+        <v>9881.708769999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>9447.020980000001</v>
+        <v>8498.07979</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>32023.57222</v>
+        <v>9029.62909</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>10545.89897</v>
+        <v>9910.32639</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>21310.59535</v>
+        <v>25392.11808</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>21051.94312</v>
+        <v>19217.75831</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>12947.69606</v>
+        <v>15271.89995</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>51033.67038</v>
+        <v>18394.08436</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>72059.51939</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>24795.68603</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>26369.995</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1935.56913</v>
+        <v>3739.77243</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>729.66392</v>
+        <v>757.35879</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1616.19206</v>
+        <v>1238.54537</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>994.07827</v>
+        <v>2761.38761</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1949.61794</v>
+        <v>47458.57704</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2824.76731</v>
+        <v>5250.881939999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3715.78245</v>
+        <v>11807.99998</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>6331.8286</v>
+        <v>20420.73628</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>4091.32165</v>
+        <v>3658.5265</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>8339.54334</v>
+        <v>65038.48874</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>54856.41057</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>19301.69213</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>78513.269</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>325285.39925</v>
+        <v>380352.1377</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>255441.8549</v>
+        <v>312091.91092</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>338057.5471</v>
+        <v>366986.91414</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>234798.94999</v>
+        <v>257028.47852</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>430113.6725800001</v>
+        <v>489521.9655699999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>436319.2276699999</v>
+        <v>538345.4696900001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>829840.3269700001</v>
+        <v>1077535.73359</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>623569.4361599999</v>
+        <v>790140.70636</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>626932.82355</v>
+        <v>785258.14804</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>4514480.04509</v>
+        <v>4813248.759450001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1955926.29892</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2108546.88414</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3790898.179</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1837.80744</v>
+        <v>3120.56447</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>2724.57565</v>
+        <v>5434.05086</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>845.1677099999999</v>
+        <v>1127.51796</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>4084.47461</v>
+        <v>4595.809149999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>11457.67591</v>
+        <v>12736.22799</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>3521.40447</v>
+        <v>7892.75226</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>5586.963</v>
+        <v>8486.923140000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>14979.03889</v>
+        <v>16763.01697</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>9009.505120000002</v>
+        <v>11242.67303</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>45220.10275</v>
+        <v>46751.47046000001</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>53424.81421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>57150.46747</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>37627.972</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>354.86451</v>
@@ -2096,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>236.35491</v>
+        <v>228.7771</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>4092.69861</v>
@@ -2105,295 +2156,335 @@
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>310.35332</v>
+        <v>311.39464</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>1.58163</v>
+        <v>1.46225</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>254.15377</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.02617</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>8.891</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>62789.53898</v>
+        <v>59727.00177</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>50505.57905</v>
+        <v>94716.81669999998</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>63926.04306</v>
+        <v>62789.68429999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>59268.11281000001</v>
+        <v>58810.9904</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>90659.29188999998</v>
+        <v>63937.15454</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>163787.4401</v>
+        <v>74308.63681</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>94744.64034</v>
+        <v>129616.37019</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>111774.96466</v>
+        <v>122017.70519</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>144939.08289</v>
+        <v>120866.77994</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>205831.74561</v>
+        <v>212647.23685</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>260684.22671</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>261852.27745</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>270735.55</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>420422.29444</v>
+        <v>481975.25677</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>333182.74603</v>
+        <v>358644.2057999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>526335.11779</v>
+        <v>597282.5255700001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>258008.14617</v>
+        <v>285407.02767</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>749081.54649</v>
+        <v>864067.94016</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>603039.96083</v>
+        <v>721226.9151900001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1272864.82798</v>
+        <v>1692047.96654</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1009407.77172</v>
+        <v>1327963.94952</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>936785.7051200001</v>
+        <v>1188706.08448</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>6011015.41497</v>
+        <v>6374826.89025</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2570919.79291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2807977.61867</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4675325.303</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>7639.732530000001</v>
+        <v>7414.28271</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>5489.22783</v>
+        <v>5568.80067</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>5143.42462</v>
+        <v>6164.29815</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3952.05076</v>
+        <v>5043.43121</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5670.78597</v>
+        <v>6075.672890000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>7476.162939999999</v>
+        <v>7669.208360000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8841.261689999999</v>
+        <v>9215.237060000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8204.24699</v>
+        <v>9151.183730000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>10736.88145</v>
+        <v>10958.83718</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>27342.67717</v>
+        <v>27083.00999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>29468.37246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>30029.51742</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>49105.246</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>55323.3161</v>
+        <v>72253.35109</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>41473.00644</v>
+        <v>41091.24381</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>43404.82856</v>
+        <v>42898.04398</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>38960.89007</v>
+        <v>40635.08485</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>53229.59993</v>
+        <v>52820.2968</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>50269.21565000001</v>
+        <v>44224.61038</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>95701.10771</v>
+        <v>109476.55312</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>97831.41090999999</v>
+        <v>106001.46948</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>94602.25243000001</v>
+        <v>97964.24411</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>146888.52119</v>
+        <v>144998.35011</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>195596.79388</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>198990.42154</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>247475.881</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1637.6048</v>
+        <v>3104.07028</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>916.62423</v>
+        <v>595.61576</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>2052.26453</v>
+        <v>22913.65918</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1167.88089</v>
+        <v>1132.33994</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2510.60533</v>
+        <v>2750.67246</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>762.60533</v>
+        <v>789.7456999999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>480.7079200000001</v>
+        <v>652.84888</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>2797.90614</v>
+        <v>2475.89619</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>697.10741</v>
+        <v>3587.78933</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>2396.75298</v>
+        <v>2397.11921</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>828.0313700000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>3942.51615</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>6768.026</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>324113.32863</v>
+        <v>369464.29276</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>254625.16689</v>
+        <v>289772.37351</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>446348.79489</v>
+        <v>495278.98793</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>188520.5362</v>
+        <v>211224.74879</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>643646.6523500001</v>
+        <v>761304.4181099999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>513477.99315</v>
+        <v>633779.9692899999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1123857.37052</v>
+        <v>1524023.27332</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>852046.54128</v>
+        <v>1157363.33098</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>758740.97922</v>
+        <v>1036990.97727</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5705616.60917</v>
+        <v>6054591.670100001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2236220.63404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2459158.60541</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>4226380.636</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1515.53197</v>
+        <v>5168.261310000001</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>602.00728</v>
+        <v>2447.19841</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>2183.13872</v>
+        <v>2648.1776</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>5343.51575</v>
+        <v>7169.534900000001</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>15100.57753</v>
+        <v>16813.03466</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>5456.891320000001</v>
+        <v>10430.11395</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>6873.702020000001</v>
+        <v>10669.82999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>14023.88086</v>
+        <v>15828.3543</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>9994.103009999999</v>
+        <v>13054.3218</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>54333.65304999999</v>
+        <v>62333.7677</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>46004.29317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>47357.41309999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>43418.965</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>78.1906</v>
+        <v>74.20201000000002</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>50.32095</v>
@@ -2408,7 +2499,7 @@
         <v>16.33604</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>85.61485</v>
+        <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>0</v>
@@ -2417,7 +2508,7 @@
         <v>0.45736</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>1.39511</v>
+        <v>184.63757</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>18.93051</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0.07887999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>63.686</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>30114.58981</v>
+        <v>24496.79661</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>30026.39241</v>
+        <v>19118.65269</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>27202.66647</v>
+        <v>27379.35873</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>20063.2725</v>
+        <v>20201.88798</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>28906.98934</v>
+        <v>24287.5092</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>25511.47759</v>
+        <v>24333.26751</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>37110.67812</v>
+        <v>38010.22417</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>34503.32818</v>
+        <v>37143.25748</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>62012.98649</v>
+        <v>25965.27722</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>74418.2709</v>
+        <v>83404.04263</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>62801.58911</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>68499.06617000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>102112.863</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>325160.27276</v>
+        <v>391144.59582</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>210141.15964</v>
+        <v>252186.12085</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>312922.57779</v>
+        <v>351505.24122</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>280077.26386</v>
+        <v>307619.60025</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>443425.9077299999</v>
+        <v>485566.86551</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>482158.74185</v>
+        <v>562101.68197</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>627296.55563</v>
+        <v>784702.1099299999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>637134.58812</v>
+        <v>759768.7928200001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>670379.38472</v>
+        <v>785320.3790399999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1944135.79628</v>
+        <v>2142756.25163</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1722081.2791</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1844323.26279</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1971332.608</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>297928.38698</v>
+        <v>334425.17408</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>187412.15806</v>
+        <v>208125.35514</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>282079.32696</v>
+        <v>317017.93673</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>259526.97884</v>
+        <v>284309.72066</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>377303.25953</v>
+        <v>426177.76816</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>443452.8231400001</v>
+        <v>519280.84157</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>562437.9466200001</v>
+        <v>671036.29098</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>578448.76619</v>
+        <v>687941.6762400001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>615097.37679</v>
+        <v>710635.42028</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1698865.25368</v>
+        <v>1816061.90982</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1579873.21279</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1662334.29379</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1771330.834</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>27231.88578</v>
+        <v>56719.42174000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>22729.00158</v>
+        <v>44060.76570999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>30843.25083</v>
+        <v>34487.30449</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>20550.28502</v>
+        <v>23309.87959</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>66122.6482</v>
+        <v>59389.09735</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>38705.91871</v>
+        <v>42820.8404</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>64858.60901</v>
+        <v>113665.81895</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>58685.82193</v>
+        <v>71827.11658</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>55282.00793</v>
+        <v>74684.95876000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>245270.5426</v>
+        <v>326694.34181</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>142208.06631</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>181988.969</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>200001.774</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>278166.40211</v>
+        <v>244348.63014</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>388090.43866</v>
+        <v>474722.58485</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>417519.4071</v>
+        <v>447674.42694</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>469841.56185</v>
+        <v>495231.57398</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>542302.1228400001</v>
+        <v>639183.52126</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>814828.8540599999</v>
+        <v>830784.224</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>567286.55412</v>
+        <v>553399.62079</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>620792.0887000001</v>
+        <v>569951.72773</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>894417.72231</v>
+        <v>944872.86199</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1267812.95282</v>
+        <v>1248360.27647</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2267557.95227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2195538.2735</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3518797.687</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>182195.00188</v>
+        <v>162620.25068</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>128805.95244</v>
+        <v>169929.52273</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>129803.94852</v>
+        <v>151550.11709</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>110458.961</v>
+        <v>122785.352</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>209530.55155</v>
+        <v>227850.46867</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>188562.13475</v>
+        <v>157698.54067</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>223076.84503</v>
+        <v>218533.08228</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>251420.66797</v>
+        <v>248593.2789</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>274945.2890399999</v>
+        <v>381097.95446</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>743363.2738300001</v>
+        <v>766559.26725</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>523401.33072</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>560253.27177</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>670945.627</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1836.03316</v>
+        <v>1794.99116</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>3323.9286</v>
+        <v>2632.85582</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>943.3300499999999</v>
+        <v>822.75314</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>5069.04132</v>
+        <v>5541.43435</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>687.57373</v>
+        <v>4221.61054</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1644.53116</v>
+        <v>1980.98128</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1235.34451</v>
+        <v>2610.77605</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1963.69135</v>
+        <v>1698.14118</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2956.82836</v>
+        <v>1586.30916</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1182.41013</v>
+        <v>1164.41131</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>19865.4067</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>19906.82637</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>8051.791</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>180358.96872</v>
+        <v>160825.25952</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>125482.02384</v>
+        <v>167296.66691</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>128860.61847</v>
+        <v>150727.36395</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>105389.91968</v>
+        <v>117243.91765</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>208842.97782</v>
+        <v>223628.85813</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>186917.60359</v>
+        <v>155717.55939</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>221841.50052</v>
+        <v>215922.30623</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>249456.97662</v>
+        <v>246895.13772</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>271988.46068</v>
+        <v>379511.6453</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>742180.8637000001</v>
+        <v>765394.85594</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>503535.92402</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>540346.4454000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>662893.836</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>129179.47452</v>
+        <v>149768.13393</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>78215.83374000002</v>
+        <v>110121.53674</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>385378.2855599999</v>
+        <v>428233.28858</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>77026.88346000001</v>
+        <v>90049.44282</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>109536.14084</v>
+        <v>119941.12967</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>236551.71351</v>
+        <v>280078.3525</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>137196.17992</v>
+        <v>286397.83695</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>323695.37713</v>
+        <v>356327.18419</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>163432.31822</v>
+        <v>226013.66419</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>398688.4904600001</v>
+        <v>387284.61265</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>287031.61936</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>327406.25758</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>323206.079</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>11292.14622</v>
+        <v>26278.18502</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>10723.73926</v>
+        <v>15692.64992</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>9826.982029999999</v>
+        <v>12894.67927</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>14341.91582</v>
+        <v>13320.47383</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>13685.87426</v>
+        <v>16393.50927</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>13863.98938</v>
+        <v>15269.81324</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>11469.5012</v>
+        <v>44199.39353</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>11273.67477</v>
+        <v>11137.30519</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>12980.06853</v>
+        <v>13344.6095</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>28626.87991</v>
+        <v>23626.649</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>59788.90979000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>104794.00568</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>33345.148</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>8941.111699999999</v>
+        <v>16332.54254</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>7117.118510000001</v>
+        <v>18677.44645</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5831.01492</v>
+        <v>4236.08837</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4723.064789999999</v>
+        <v>3209.26313</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3610.94693</v>
+        <v>3911.40843</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>15008.98138</v>
+        <v>15140.82929</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>17957.84893</v>
+        <v>16219.07762</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5567.796859999999</v>
+        <v>5180.59185</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3267.66421</v>
+        <v>2353.10905</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>9733.225980000001</v>
+        <v>8391.198359999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6151.77508</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>14682.47883</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7716.335</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>108946.2166</v>
+        <v>107157.40637</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>60374.97597</v>
+        <v>75751.44037000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>369720.28861</v>
+        <v>411102.52094</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>57961.90285</v>
+        <v>73519.70586</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>92239.31964999999</v>
+        <v>99636.21197</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>207678.74275</v>
+        <v>249667.70997</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>107768.82979</v>
+        <v>225979.3658</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>306853.9055</v>
+        <v>340009.28715</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>147184.58548</v>
+        <v>210315.94564</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>360328.38457</v>
+        <v>355266.76529</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>221090.93449</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>207929.77307</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>282144.596</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>331181.92947</v>
+        <v>257200.74689</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>438680.55736</v>
+        <v>534530.5708400001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>161945.07006</v>
+        <v>170991.25545</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>503273.63939</v>
+        <v>527967.4831599999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>642296.5335499999</v>
+        <v>747092.86026</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>766839.2753</v>
+        <v>708404.4121699999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>653167.21923</v>
+        <v>485534.86612</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>548517.3795400001</v>
+        <v>462217.82244</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1005930.69313</v>
+        <v>1099957.15226</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1612487.73619</v>
+        <v>1627634.93107</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2503927.66363</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2428385.28769</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3866537.235</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>72478.55446000001</v>
+        <v>75914.3665</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>84888.13262</v>
+        <v>90121.73993</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>103707.23826</v>
+        <v>111374.67873</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>98240.18084</v>
+        <v>103783.5985</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>135342.89987</v>
+        <v>142973.42873</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>151840.17655</v>
+        <v>165871.29688</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>161475.49828</v>
+        <v>166127.66875</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>169363.86746</v>
+        <v>174958.44886</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>199645.61239</v>
+        <v>207328.24726</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>346289.39611</v>
+        <v>348573.2752800001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>401605.64707</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>406967.50492</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>632176.6</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>258703.37501</v>
+        <v>181286.38039</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>353792.42474</v>
+        <v>444408.83091</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>58237.8318</v>
+        <v>59616.57672</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>405033.45855</v>
+        <v>424183.88466</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>506953.63368</v>
+        <v>604119.4315299999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>614999.09875</v>
+        <v>542533.11529</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>491691.72095</v>
+        <v>319407.1973700001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>379153.51208</v>
+        <v>287259.37358</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>806285.08074</v>
+        <v>892628.905</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1266198.34008</v>
+        <v>1279061.65579</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2102322.01656</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2021417.78277</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3234360.635</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1254</v>
+        <v>1060</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1333</v>
+        <v>1113</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1414</v>
+        <v>1225</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1456</v>
+        <v>1253</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1348</v>
+        <v>1193</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1463</v>
+        <v>1331</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1508</v>
+        <v>1362</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1570</v>
+        <v>1350</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1651</v>
+        <v>1397</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1254</v>
+        <v>1170</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1225</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>